--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89820.4658976202</v>
+        <v>16033210.24583331</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89820.4658976202</v>
+        <v>16033210.24583331</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1496.65858526861</v>
+        <v>91019.97821323082</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1496.65858526861</v>
+        <v>91019.97821323082</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959348950.3073425</v>
+        <v>39627163.01885457</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7929.283929298139</v>
+        <v>936430.4492130621</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14958.90986635522</v>
+        <v>1721759.910283609</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21997.77886918115</v>
+        <v>2507089.371354158</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29024.1252467648</v>
+        <v>3292956.64999911</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36118.02844239923</v>
+        <v>4078708.654744718</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43182.08713355902</v>
+        <v>4864460.659490326</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50318.1979772754</v>
+        <v>5650212.664235932</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>57383.24863264372</v>
+        <v>6435964.668981537</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>64402.81418506889</v>
+        <v>7221767.682726373</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>71528.08706454589</v>
+        <v>8007553.35067392</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>78667.51903510698</v>
+        <v>8793339.018621473</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>85714.32060693025</v>
+        <v>9578689.474426595</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>92693.42092810535</v>
+        <v>10364139.31137221</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99767.99688177793</v>
+        <v>11149589.14831782</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>106769.3543882747</v>
+        <v>11935038.98526344</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27055,10 +27055,10 @@
         <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>383</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>307</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
